--- a/stock_historical_data/1wk/SIL.NS.xlsx
+++ b/stock_historical_data/1wk/SIL.NS.xlsx
@@ -61205,7 +61205,9 @@
       <c r="P1146" t="n">
         <v>0</v>
       </c>
-      <c r="Q1146" t="inlineStr"/>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIL.NS.xlsx
+++ b/stock_historical_data/1wk/SIL.NS.xlsx
@@ -64701,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIL.NS.xlsx
+++ b/stock_historical_data/1wk/SIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1147"/>
+  <dimension ref="A1:R1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64469,7 +64469,7 @@
         <v>20</v>
       </c>
       <c r="O1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1143" t="n">
         <v>0</v>
@@ -64704,6 +64704,114 @@
       <c r="R1147" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>24.79000091552734</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>24.97999954223633</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>23.26000022888184</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>24.72999954223633</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>24.72999954223633</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>329669</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>25.34000015258789</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>27.79000091552734</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>23.86000061035156</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>25.63999938964844</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>25.63999938964844</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>1094930</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIL.NS.xlsx
+++ b/stock_historical_data/1wk/SIL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -64757,7 +64757,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64811,7 +64813,1829 @@
       <c r="Q1149" t="n">
         <v>1</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>25.11836611090459</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>30.04353593657215</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>24.28108686478046</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>29.37371253967285</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>2528446</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>30.04353613954797</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>31.07782105840457</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>26.26100553757604</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>27.9355640411377</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>1769311</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>28.1719714906189</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>28.55613413187723</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>25.61088283168933</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>26.02459716796875</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>510030</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>26.09355050750073</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>38.31782421017858</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>25.54193199202332</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>35.80598449707031</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>7789914</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>37.42144217761479</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>38.31782294010558</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>30.07308778365794</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>32.31896591186523</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>1626158</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>29.01000022888184</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>32.70000076293945</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>550179</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>31.79999923706055</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>28.20999908447266</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>28.42000007629395</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>299055</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>29.45000076293945</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>30.98999977111816</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>29.35000038146973</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>321804</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>30.44000053405762</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>30.44000053405762</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>27.70000076293945</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>28.01000022888184</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>199931</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>28.59000015258789</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>28.59000015258789</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>27.46999931335449</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>250968</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>27.46999931335449</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>28.14999961853027</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>26.11000061035156</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>27.53000068664551</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>171930</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>27.79999923706055</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>27.02000045776367</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>390741</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>27.72999954223633</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>27.04999923706055</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>28.26000022888184</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>280755</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>28.79000091552734</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>28.79000091552734</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>26.19000053405762</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>26.35000038146973</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>100919</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>26.88999938964844</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>27.31999969482422</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>24.10000038146973</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>26.36000061035156</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>232708</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>26.04999923706055</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>27.84000015258789</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>25.51000022888184</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>26.42000007629395</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>98720</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>27.70000076293945</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>24.54000091552734</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>24.63999938964844</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>199600</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>25.1200008392334</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>30.60000038146973</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>24.01000022888184</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>29.11000061035156</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>560382</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>3</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>29.1200008392334</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>30.01000022888184</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>26.68000030517578</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>26.81999969482422</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>565143</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>27.8799991607666</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>25.95999908447266</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>26.8799991607666</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>288631</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>26.53000068664551</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>26.01000022888184</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>26.45000076293945</v>
+      </c>
+      <c r="F1170" t="inlineStr"/>
+      <c r="G1170" t="n">
+        <v>165022</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>28.70000076293945</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>25.35000038146973</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>27.01000022888184</v>
+      </c>
+      <c r="F1171" t="inlineStr"/>
+      <c r="G1171" t="n">
+        <v>409424</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>27.60000038146973</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>26.54999923706055</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>27.71999931335449</v>
+      </c>
+      <c r="F1172" t="inlineStr"/>
+      <c r="G1172" t="n">
+        <v>253775</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>27.26000022888184</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>31</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>27.26000022888184</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>29.29999923706055</v>
+      </c>
+      <c r="F1173" t="inlineStr"/>
+      <c r="G1173" t="n">
+        <v>1418860</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>30.27000045776367</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>26.85000038146973</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>27.29999923706055</v>
+      </c>
+      <c r="F1174" t="inlineStr"/>
+      <c r="G1174" t="n">
+        <v>406208</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>27.70000076293945</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>28.79000091552734</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>27.3700008392334</v>
+      </c>
+      <c r="F1175" t="inlineStr"/>
+      <c r="G1175" t="n">
+        <v>168678</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>27.60000038146973</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>28.73999977111816</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>28.18000030517578</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>129423</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>28.54999923706055</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>28.54999923706055</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>24.22999954223633</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>24.95999908447266</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>307634</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>28.29000091552734</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>23.56999969482422</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>26.64999961853027</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>417488</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>26.64999961853027</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>24.96999931335449</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>25.77000045776367</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>161293</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>26.29999923706055</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>23.45000076293945</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>169392</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>24.70000076293945</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>24.95000076293945</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>189677</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>25.48999977111816</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>25.48999977111816</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>21.40999984741211</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>234191</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>18.79999923706055</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>220577</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>18.79999923706055</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>167849</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SIL.NS.xlsx
+++ b/stock_historical_data/1wk/SIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5504,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q90" t="n">
         <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -8030,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="R135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="R141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -8702,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="R163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -10046,7 +10046,7 @@
         <v>2</v>
       </c>
       <c r="R171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -10942,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="R187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -11670,7 +11670,7 @@
         <v>1</v>
       </c>
       <c r="R200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -12454,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -13910,7 +13910,7 @@
         <v>2</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -14358,7 +14358,7 @@
         <v>2</v>
       </c>
       <c r="R248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="R252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="R261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -15870,7 +15870,7 @@
         <v>2</v>
       </c>
       <c r="R275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -16430,7 +16430,7 @@
         <v>1</v>
       </c>
       <c r="R285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="R295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -17886,7 +17886,7 @@
         <v>2</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -18614,7 +18614,7 @@
         <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -20462,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="R370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -21582,7 +21582,7 @@
         <v>2</v>
       </c>
       <c r="R377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -22254,7 +22254,7 @@
         <v>2</v>
       </c>
       <c r="R389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
       <c r="R394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -23262,7 +23262,7 @@
         <v>1</v>
       </c>
       <c r="R407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -23710,7 +23710,7 @@
         <v>2</v>
       </c>
       <c r="R415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -24382,7 +24382,7 @@
         <v>1</v>
       </c>
       <c r="R427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="R448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -26454,7 +26454,7 @@
         <v>1</v>
       </c>
       <c r="R464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -26790,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="R470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -27126,7 +27126,7 @@
         <v>2</v>
       </c>
       <c r="R476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -28694,7 +28694,7 @@
         <v>1</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -28974,7 +28974,7 @@
         <v>2</v>
       </c>
       <c r="R509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="R516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -29590,7 +29590,7 @@
         <v>2</v>
       </c>
       <c r="R520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521">
@@ -29758,7 +29758,7 @@
         <v>1</v>
       </c>
       <c r="R523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -30150,7 +30150,7 @@
         <v>2</v>
       </c>
       <c r="R530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -30766,7 +30766,7 @@
         <v>1</v>
       </c>
       <c r="R541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -30878,7 +30878,7 @@
         <v>2</v>
       </c>
       <c r="R543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -31158,7 +31158,7 @@
         <v>1</v>
       </c>
       <c r="R548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -31438,7 +31438,7 @@
         <v>2</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -32278,7 +32278,7 @@
         <v>1</v>
       </c>
       <c r="R568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -32950,7 +32950,7 @@
         <v>2</v>
       </c>
       <c r="R580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581">
@@ -33622,7 +33622,7 @@
         <v>2</v>
       </c>
       <c r="R592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -33678,7 +33678,7 @@
         <v>2</v>
       </c>
       <c r="R593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -33958,7 +33958,7 @@
         <v>1</v>
       </c>
       <c r="R598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -34406,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="R606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -34966,7 +34966,7 @@
         <v>1</v>
       </c>
       <c r="R616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -36478,7 +36478,7 @@
         <v>1</v>
       </c>
       <c r="R643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -36590,7 +36590,7 @@
         <v>2</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646">
@@ -36926,7 +36926,7 @@
         <v>1</v>
       </c>
       <c r="R651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
@@ -37654,7 +37654,7 @@
         <v>2</v>
       </c>
       <c r="R664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665">
@@ -37766,7 +37766,7 @@
         <v>1</v>
       </c>
       <c r="R666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -38270,7 +38270,7 @@
         <v>2</v>
       </c>
       <c r="R675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -38662,7 +38662,7 @@
         <v>1</v>
       </c>
       <c r="R682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -39222,7 +39222,7 @@
         <v>2</v>
       </c>
       <c r="R692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -39726,7 +39726,7 @@
         <v>1</v>
       </c>
       <c r="R701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -40118,7 +40118,7 @@
         <v>2</v>
       </c>
       <c r="R708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709">
@@ -40510,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="R715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
@@ -40958,7 +40958,7 @@
         <v>1</v>
       </c>
       <c r="R723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -41798,7 +41798,7 @@
         <v>1</v>
       </c>
       <c r="R738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -42526,7 +42526,7 @@
         <v>1</v>
       </c>
       <c r="R751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752">
@@ -42974,7 +42974,7 @@
         <v>1</v>
       </c>
       <c r="R759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760">
@@ -43590,7 +43590,7 @@
         <v>2</v>
       </c>
       <c r="R770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771">
@@ -43982,7 +43982,7 @@
         <v>1</v>
       </c>
       <c r="R777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778">
@@ -44374,7 +44374,7 @@
         <v>2</v>
       </c>
       <c r="R784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785">
@@ -44486,7 +44486,7 @@
         <v>1</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -45718,7 +45718,7 @@
         <v>2</v>
       </c>
       <c r="R808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
@@ -46278,7 +46278,7 @@
         <v>2</v>
       </c>
       <c r="R818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -47902,7 +47902,7 @@
         <v>2</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="R861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862">
@@ -49078,7 +49078,7 @@
         <v>2</v>
       </c>
       <c r="R868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -49414,7 +49414,7 @@
         <v>1</v>
       </c>
       <c r="R874" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875">
@@ -50478,7 +50478,7 @@
         <v>1</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -51710,7 +51710,7 @@
         <v>1</v>
       </c>
       <c r="R915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -52102,7 +52102,7 @@
         <v>2</v>
       </c>
       <c r="R922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -52662,7 +52662,7 @@
         <v>1</v>
       </c>
       <c r="R932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -52886,7 +52886,7 @@
         <v>2</v>
       </c>
       <c r="R936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937">
@@ -53502,7 +53502,7 @@
         <v>2</v>
       </c>
       <c r="R947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948">
@@ -53894,7 +53894,7 @@
         <v>2</v>
       </c>
       <c r="R954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955">
@@ -55070,7 +55070,7 @@
         <v>2</v>
       </c>
       <c r="R975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976">
@@ -55574,7 +55574,7 @@
         <v>2</v>
       </c>
       <c r="R984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985">
@@ -56022,7 +56022,7 @@
         <v>1</v>
       </c>
       <c r="R992" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993">
@@ -56302,7 +56302,7 @@
         <v>2</v>
       </c>
       <c r="R997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998">
@@ -57142,7 +57142,7 @@
         <v>1</v>
       </c>
       <c r="R1012" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -57646,7 +57646,7 @@
         <v>1</v>
       </c>
       <c r="R1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -57982,7 +57982,7 @@
         <v>2</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -58598,7 +58598,7 @@
         <v>1</v>
       </c>
       <c r="R1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -59214,7 +59214,7 @@
         <v>2</v>
       </c>
       <c r="R1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -59438,7 +59438,7 @@
         <v>1</v>
       </c>
       <c r="R1053" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -59774,7 +59774,7 @@
         <v>1</v>
       </c>
       <c r="R1059" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -60334,7 +60334,7 @@
         <v>2</v>
       </c>
       <c r="R1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -60726,7 +60726,7 @@
         <v>2</v>
       </c>
       <c r="R1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -61510,7 +61510,7 @@
         <v>1</v>
       </c>
       <c r="R1090" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -61902,7 +61902,7 @@
         <v>2</v>
       </c>
       <c r="R1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -62518,7 +62518,7 @@
         <v>1</v>
       </c>
       <c r="R1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -62742,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="R1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
@@ -63862,7 +63862,7 @@
         <v>2</v>
       </c>
       <c r="R1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -64867,7 +64867,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64919,7 +64921,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64971,7 +64975,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65023,7 +65029,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65075,7 +65083,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65127,7 +65137,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65179,7 +65191,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65231,7 +65245,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65283,7 +65299,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65353,9 @@
       <c r="Q1159" t="n">
         <v>2</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65387,7 +65407,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65439,7 +65461,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65491,7 +65515,9 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1163">
       <c r="A1163" s="2" t="n">
@@ -65543,7 +65569,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65595,7 +65623,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65647,7 +65677,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65699,7 +65731,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65751,7 +65785,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65803,7 +65839,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65855,7 +65893,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65907,7 +65947,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -65959,7 +66001,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66011,7 +66055,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66063,7 +66109,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66115,7 +66163,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66167,7 +66217,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66219,7 +66271,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66271,7 +66325,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66323,7 +66379,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66375,7 +66433,9 @@
       <c r="Q1179" t="n">
         <v>2</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66427,7 +66487,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66479,7 +66541,9 @@
       <c r="Q1181" t="n">
         <v>0</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66531,7 +66595,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66583,7 +66649,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66635,7 +66703,477 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>18.98999977111816</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>18.51000022888184</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>20.65999984741211</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>214629</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>19.04999923706055</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>19.38999938964844</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>352090</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>18.39999961853027</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>19.76000022888184</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>281678</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>19</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>1171253</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>20.27000045776367</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>19.67000007629395</v>
+      </c>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="n">
+        <v>230124</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>18.67000007629395</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>19.64999961853027</v>
+      </c>
+      <c r="F1190" t="inlineStr"/>
+      <c r="G1190" t="n">
+        <v>105772</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>19.17000007629395</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>20.55999946594238</v>
+      </c>
+      <c r="F1191" t="inlineStr"/>
+      <c r="G1191" t="n">
+        <v>96678</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>21.34000015258789</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="F1192" t="inlineStr"/>
+      <c r="G1192" t="n">
+        <v>160407</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>20.45000076293945</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>20.88999938964844</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>19.8799991607666</v>
+      </c>
+      <c r="F1193" t="inlineStr"/>
+      <c r="G1193" t="n">
+        <v>35196</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
